--- a/资料库/道具库.xlsx
+++ b/资料库/道具库.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765"/>
+    <workbookView windowWidth="19935" windowHeight="7785" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="物品V2" sheetId="2" r:id="rId1"/>
-    <sheet name="药剂效果" sheetId="3" r:id="rId2"/>
+    <sheet name="道具效果" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="172">
   <si>
     <t>情报层级</t>
   </si>
@@ -245,15 +245,69 @@
     <t>娼馆之间流传的香水，撒在身上之后能散发出难以抵御的香气。与客户的战斗在床上之前就已经开始，要么攻陷客户的心灵，要么献上自己的肉体</t>
   </si>
   <si>
+    <t>土制闪光弹</t>
+  </si>
+  <si>
+    <t>使用</t>
+  </si>
+  <si>
+    <t>85%强光I</t>
+  </si>
+  <si>
+    <t>铁1火1光1</t>
+  </si>
+  <si>
+    <t>回收再造的使用短时引信的闪光弹，在扔出去后几乎是立即爆炸，释放出强光。跟原装产品相比光的强度要稍弱，还有哑弹的可能性</t>
+  </si>
+  <si>
+    <t>土制音爆弹</t>
+  </si>
+  <si>
+    <t>85%巨响I</t>
+  </si>
+  <si>
+    <t>铁1雷1暗1</t>
+  </si>
+  <si>
+    <t>回收再造的使用短时引信的音爆弹，在扔出去后几乎是立即爆炸，释放出强烈声响。跟原装产品相比声音的强度要稍弱，还有哑弹的可能性</t>
+  </si>
+  <si>
+    <t>土制震撼弹</t>
+  </si>
+  <si>
+    <t>100%强光I</t>
+  </si>
+  <si>
+    <t>不稳定I</t>
+  </si>
+  <si>
+    <t>铁1生命1魔力1</t>
+  </si>
+  <si>
+    <t>临时制作的使用了短时引信的震撼弹，在扔出去后几乎是立即爆炸，释放出强光跟巨响。粗劣的加工手法留下了误爆的隐患</t>
+  </si>
+  <si>
+    <t>土制燃烧弹</t>
+  </si>
+  <si>
+    <t>100%引燃I</t>
+  </si>
+  <si>
+    <t>【命中2以上】100%火焰覆盖</t>
+  </si>
+  <si>
+    <t>铁1火3</t>
+  </si>
+  <si>
+    <t>临时制作的使用了碰炸引信的燃烧弹，在命中目标时喷射燃料并点火。装料问题导致需要2个以上才能引燃站位，而粗劣的加工手法留下了误爆的隐患</t>
+  </si>
+  <si>
     <t>T2</t>
   </si>
   <si>
     <t>破拆套件</t>
   </si>
   <si>
-    <t>使用</t>
-  </si>
-  <si>
     <t>85%采集成功率+I</t>
   </si>
   <si>
@@ -338,6 +392,54 @@
     <t>装有必要针剂和药物的包裹。用于稳定伤势的药物随着使用会逐渐消耗。耐久为5</t>
   </si>
   <si>
+    <t>阻燃黏胶</t>
+  </si>
+  <si>
+    <t>85%火焰抗性I</t>
+  </si>
+  <si>
+    <t>100%润滑I</t>
+  </si>
+  <si>
+    <t>生命3冰3</t>
+  </si>
+  <si>
+    <t>光是涂抹在身上就会有清凉的感觉的黏胶。可以阻碍火焰燃烧。会让身上滑溜溜的，原本的用途不明。</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>解毒剂</t>
+  </si>
+  <si>
+    <t>100%【毒素中和I】+100</t>
+  </si>
+  <si>
+    <t>25%【抗药性】+100</t>
+  </si>
+  <si>
+    <t>生命3精力2毒2</t>
+  </si>
+  <si>
+    <t>有着浑浊的橙色颜色的粘稠药水，散发出异样的香橙味。喝下之后可以中和毒素并促进解毒能力，但短时间重复饮用会降低效应</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>万灵药</t>
+  </si>
+  <si>
+    <t>100%【万灵药】+100</t>
+  </si>
+  <si>
+    <t>生命4精力4龙1</t>
+  </si>
+  <si>
+    <t>闪烁着七彩的光芒，有如彩虹在其中流动的液体。泼洒在身上可以治愈所有身体上的暂时异常状态。带有利刃圆环的标记的补给品，擅自买卖的话会被严刑处罚所以是非卖品</t>
+  </si>
+  <si>
     <t>效果</t>
   </si>
   <si>
@@ -372,6 +474,63 @@
   </si>
   <si>
     <t>在进行魅力有关的检定时成功率+I</t>
+  </si>
+  <si>
+    <t>强光I</t>
+  </si>
+  <si>
+    <t>失明3回合震慑1回合。以成功率-I通过坚韧可以豁免</t>
+  </si>
+  <si>
+    <t>巨响I</t>
+  </si>
+  <si>
+    <t>失聪3回合失衡1回合。以成功率-I通过坚韧可以豁免</t>
+  </si>
+  <si>
+    <t>拿在手上或者放置于容器中时，将会在承受暴击时被引爆</t>
+  </si>
+  <si>
+    <t>引燃I</t>
+  </si>
+  <si>
+    <t>目标立即以-I进行燃烧检定，失败时进入燃烧I的状态</t>
+  </si>
+  <si>
+    <t>火焰覆盖</t>
+  </si>
+  <si>
+    <t>燃烧的范围覆盖至全站位</t>
+  </si>
+  <si>
+    <t>火焰抗性I</t>
+  </si>
+  <si>
+    <t>燃烧鉴定时正修正+I，燃烧时伤害减少I</t>
+  </si>
+  <si>
+    <t>润滑I</t>
+  </si>
+  <si>
+    <t>行动限制豁免+I；攻击动作失败时以-I做敏捷检定，失败时跌倒并武器脱手</t>
+  </si>
+  <si>
+    <t>毒素中和I</t>
+  </si>
+  <si>
+    <t>当前体内的所有毒素剂量减少I</t>
+  </si>
+  <si>
+    <t>抗药性</t>
+  </si>
+  <si>
+    <t>针对每药品，每获得1抗药性，使用时成功率-I</t>
+  </si>
+  <si>
+    <t>8小时</t>
+  </si>
+  <si>
+    <t>立刻解除当前身体所有短时异常状态。使用次数会被记录</t>
   </si>
 </sst>
 </file>
@@ -379,10 +538,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -393,16 +552,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,6 +577,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -424,22 +629,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -453,40 +650,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -506,10 +674,17 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -520,22 +695,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -546,187 +705,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,30 +900,15 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -788,8 +932,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -798,7 +966,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -813,177 +996,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1321,10 +1480,10 @@
   <sheetPr/>
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1332,7 +1491,7 @@
     <col min="1" max="4" width="9" style="1"/>
     <col min="5" max="8" width="16.375" style="2" customWidth="1"/>
     <col min="9" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="9.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14" style="1" customWidth="1"/>
     <col min="11" max="12" width="9" style="1"/>
     <col min="13" max="13" width="68.5" style="2" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
@@ -1750,163 +1909,145 @@
     </row>
     <row r="11" ht="27" spans="1:13">
       <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="1">
+        <v>600</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>3</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" s="1">
-        <v>2500</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K11" s="1">
-        <v>3</v>
-      </c>
-      <c r="L11" s="1">
-        <v>1</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="12" ht="27" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H12" s="2" t="s">
         <v>82</v>
       </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
       <c r="I12" s="1">
-        <v>2500</v>
+        <v>600</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>83</v>
       </c>
       <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
         <v>3</v>
       </c>
-      <c r="L12" s="1">
-        <v>1</v>
-      </c>
       <c r="M12" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" ht="27" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" s="1">
+        <v>800</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>3</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" s="1">
-        <v>2500</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K13" s="1">
-        <v>3</v>
-      </c>
-      <c r="L13" s="1">
-        <v>1</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="14" ht="27" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="1">
+        <v>600</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="1">
-        <v>2500</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
         <v>3</v>
-      </c>
-      <c r="L14" s="1">
-        <v>1</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>94</v>
@@ -1914,34 +2055,34 @@
     </row>
     <row r="15" ht="27" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F15" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="F15" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="G15" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="I15" s="1">
         <v>2500</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="K15" s="1">
         <v>3</v>
@@ -1950,39 +2091,39 @@
         <v>1</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" ht="27" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I16" s="1">
         <v>2500</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K16" s="1">
         <v>3</v>
@@ -1991,42 +2132,276 @@
         <v>1</v>
       </c>
       <c r="M16" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" ht="27" spans="1:13">
+      <c r="A17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="C17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2500</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K17" s="1">
+        <v>3</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" ht="27" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>95</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="1">
+        <v>2500</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K18" s="1">
+        <v>3</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" ht="27" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>95</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" s="1">
+        <v>2500</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K19" s="1">
+        <v>3</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" ht="27" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>95</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I20" s="1">
+        <v>2500</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K20" s="1">
+        <v>3</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" ht="27" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>95</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K21" s="1">
+        <v>2</v>
+      </c>
+      <c r="L21" s="1">
+        <v>2</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" ht="27" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>130</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1001</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K22" s="1">
+        <v>3</v>
+      </c>
+      <c r="L22" s="1">
+        <v>3</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" ht="40.5" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>136</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I23" s="1">
+        <v>5000</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K23" s="1">
+        <v>2</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -2086,11 +2461,11 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C9 C10:C16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11 D20 D21 D2:D10 D12:D14 D15:D19 D22:D23">
+      <formula1>"饮用,外用,蒸汽,注射,使用"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C11 C20 C21 C2:C9 C12:C14 C15:C19 C22:C23">
       <formula1>"药剂,道具,针剂"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10 D11:D16">
-      <formula1>"饮用,外用,蒸汽,注射,使用"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2101,10 +2476,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2123,10 +2498,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2134,10 +2509,10 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="D2" s="1">
         <v>3</v>
@@ -2148,10 +2523,10 @@
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="D3" s="1">
         <v>3</v>
@@ -2162,10 +2537,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -2176,10 +2551,10 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -2190,33 +2565,153 @@
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="B7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="B8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="B9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/资料库/道具库.xlsx
+++ b/资料库/道具库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="7785" activeTab="1"/>
+    <workbookView windowWidth="21600" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="物品V2" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="176">
   <si>
     <t>情报层级</t>
   </si>
@@ -59,6 +59,27 @@
     <t>T1</t>
   </si>
   <si>
+    <t>干粮</t>
+  </si>
+  <si>
+    <t>道具</t>
+  </si>
+  <si>
+    <t>使用</t>
+  </si>
+  <si>
+    <t>100%饥饿度+1</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>任意食物</t>
+  </si>
+  <si>
+    <t>由干燥后的面包，风干香肠，加工后的罐头跟肉干组成的携带食品。一人一顿只用吃一份。为了对抗地牢的腐烂效果而进行的</t>
+  </si>
+  <si>
     <t>血红酒</t>
   </si>
   <si>
@@ -74,9 +95,6 @@
     <t>95%麻痹毒素+25</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>生命1</t>
   </si>
   <si>
@@ -140,9 +158,6 @@
     <t>红泥软膏</t>
   </si>
   <si>
-    <t>道具</t>
-  </si>
-  <si>
     <t>75%恢复1部位失能</t>
   </si>
   <si>
@@ -246,9 +261,6 @@
   </si>
   <si>
     <t>土制闪光弹</t>
-  </si>
-  <si>
-    <t>使用</t>
   </si>
   <si>
     <t>85%强光I</t>
@@ -538,10 +550,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -552,57 +564,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -621,8 +586,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -635,8 +653,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -652,6 +679,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -667,30 +702,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -705,31 +717,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,31 +867,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,115 +897,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,15 +912,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -932,32 +959,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -966,22 +969,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -996,153 +984,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1478,12 +1490,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1554,29 +1566,27 @@
       <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1">
+        <v>50</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="1">
-        <v>500</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="K2" s="1">
         <v>2</v>
       </c>
       <c r="L2" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:13">
@@ -1584,31 +1594,31 @@
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3" s="1">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K3" s="1">
         <v>2</v>
@@ -1617,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:13">
@@ -1625,31 +1635,31 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" s="1">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K4" s="1">
         <v>2</v>
@@ -1658,21 +1668,21 @@
         <v>5</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" ht="40.5" spans="1:13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" ht="27" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>34</v>
@@ -1681,66 +1691,66 @@
         <v>35</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="1">
+        <v>300</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="K5" s="1">
+        <v>2</v>
+      </c>
+      <c r="L5" s="1">
+        <v>5</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="1">
+    </row>
+    <row r="6" ht="40.5" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="1">
         <v>150</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="1">
+      <c r="J6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="1">
         <v>3</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L6" s="1">
         <v>3</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" ht="27" spans="1:13">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1000</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1">
-        <v>10</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:13">
@@ -1748,122 +1758,122 @@
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="I7" s="1">
         <v>1000</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>10</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" ht="27" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K7" s="1">
-        <v>2</v>
-      </c>
-      <c r="L7" s="1">
-        <v>5</v>
-      </c>
-      <c r="M7" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" ht="40.5" spans="1:13">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I8" s="1">
-        <v>700</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="K8" s="1">
         <v>2</v>
       </c>
       <c r="L8" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M8" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" ht="40.5" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="9" ht="27" spans="1:13">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="I9" s="1">
+        <v>700</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="1">
-        <v>500</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="K9" s="1">
         <v>2</v>
       </c>
       <c r="L9" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:13">
@@ -1871,40 +1881,40 @@
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="1">
+        <v>500</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I10" s="1">
-        <v>250</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="K10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10" s="1">
         <v>10</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" ht="27" spans="1:13">
@@ -1912,22 +1922,28 @@
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="G11" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
       <c r="I11" s="1">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>79</v>
@@ -1936,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>80</v>
@@ -1950,17 +1966,14 @@
         <v>81</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
       <c r="I12" s="1">
         <v>600</v>
       </c>
@@ -1985,25 +1998,19 @@
         <v>85</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="I13" s="1">
+        <v>600</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="I13" s="1">
-        <v>800</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="K13" s="1">
         <v>1</v>
@@ -2012,7 +2019,7 @@
         <v>3</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" ht="27" spans="1:13">
@@ -2020,28 +2027,28 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="I14" s="1">
+        <v>800</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I14" s="1">
-        <v>600</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="K14" s="1">
         <v>1</v>
@@ -2050,80 +2057,77 @@
         <v>3</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" ht="27" spans="1:13">
       <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="F15" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="G15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" s="1">
+        <v>600</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>3</v>
+      </c>
+      <c r="M15" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I15" s="1">
-        <v>2500</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K15" s="1">
-        <v>3</v>
-      </c>
-      <c r="L15" s="1">
-        <v>1</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="16" ht="27" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="I16" s="1">
         <v>2500</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K16" s="1">
         <v>3</v>
@@ -2132,39 +2136,39 @@
         <v>1</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" ht="27" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="I17" s="1">
         <v>2500</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K17" s="1">
         <v>3</v>
@@ -2173,39 +2177,39 @@
         <v>1</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" ht="27" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>111</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="I18" s="1">
         <v>2500</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K18" s="1">
         <v>3</v>
@@ -2219,16 +2223,16 @@
     </row>
     <row r="19" ht="27" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>114</v>
@@ -2237,16 +2241,16 @@
         <v>115</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="I19" s="1">
         <v>2500</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K19" s="1">
         <v>3</v>
@@ -2255,39 +2259,39 @@
         <v>1</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" ht="27" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="H20" s="2" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="I20" s="1">
         <v>2500</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="K20" s="1">
         <v>3</v>
@@ -2296,50 +2300,56 @@
         <v>1</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" ht="27" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="I21" s="1">
+        <v>2500</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I21" s="1">
-        <v>1000</v>
-      </c>
-      <c r="J21" s="1" t="s">
+      <c r="K21" s="1">
+        <v>3</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1</v>
+      </c>
+      <c r="M21" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="K21" s="1">
-        <v>2</v>
-      </c>
-      <c r="L21" s="1">
-        <v>2</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="22" ht="27" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>15</v>
@@ -2348,65 +2358,95 @@
         <v>16</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G22" s="2" t="s">
+      <c r="K22" s="1">
+        <v>2</v>
+      </c>
+      <c r="L22" s="1">
+        <v>2</v>
+      </c>
+      <c r="M22" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="I22" s="1">
+    </row>
+    <row r="23" ht="27" spans="1:13">
+      <c r="A23" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I23" s="1">
         <v>1001</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="K22" s="1">
+      <c r="J23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K23" s="1">
         <v>3</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L23" s="1">
         <v>3</v>
       </c>
-      <c r="M22" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="23" ht="40.5" spans="1:13">
-      <c r="A23" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="I23" s="1">
+      <c r="M23" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" ht="40.5" spans="1:13">
+      <c r="A24" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I24" s="1">
         <v>5000</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K23" s="1">
+      <c r="J24" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K24" s="1">
         <v>2</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L24" s="1">
         <v>1</v>
       </c>
-      <c r="M23" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
-        <v>13</v>
+      <c r="M24" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -2459,13 +2499,18 @@
         <v>13</v>
       </c>
     </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11 D20 D21 D2:D10 D12:D14 D15:D19 D22:D23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C12 C21 C22 C2:C3 C4:C10 C13:C15 C16:C20 C23:C24">
+      <formula1>"药剂,道具,针剂"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12 D21 D22 D2:D3 D4:D11 D13:D15 D16:D20 D23:D24">
       <formula1>"饮用,外用,蒸汽,注射,使用"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C11 C20 C21 C2:C9 C12:C14 C15:C19 C22:C23">
-      <formula1>"药剂,道具,针剂"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2478,7 +2523,7 @@
   <sheetPr/>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -2498,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2509,10 +2554,10 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D2" s="1">
         <v>3</v>
@@ -2523,10 +2568,10 @@
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D3" s="1">
         <v>3</v>
@@ -2537,10 +2582,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -2551,10 +2596,10 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -2565,10 +2610,10 @@
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
@@ -2579,13 +2624,13 @@
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2593,13 +2638,13 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2607,13 +2652,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2621,10 +2666,10 @@
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D10" s="1">
         <v>3</v>
@@ -2635,24 +2680,24 @@
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D12" s="1">
         <v>3</v>
@@ -2660,13 +2705,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D13" s="1">
         <v>3</v>
@@ -2674,44 +2719,44 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/资料库/道具库.xlsx
+++ b/资料库/道具库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9840"/>
+    <workbookView windowWidth="19935" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="物品V2" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="178">
   <si>
     <t>情报层级</t>
   </si>
@@ -326,7 +326,7 @@
     <t>【跨障】70%障碍-I</t>
   </si>
   <si>
-    <t>【手工】70%采集成果+I</t>
+    <t>【手工】70%采集成果机遇+I</t>
   </si>
   <si>
     <t>50%套件耐久-1</t>
@@ -341,7 +341,10 @@
     <t>收割套件</t>
   </si>
   <si>
-    <t>【手工】50%战斗战利品+I</t>
+    <t>【手工】50%战斗战利品丰富+I</t>
+  </si>
+  <si>
+    <t>【手工】70%采集成果丰富+I</t>
   </si>
   <si>
     <t>摘取草药、果实，收割皮革的时候用的称手工具包。在卸除装备上也能有帮助。精细的部件在操作中容易损坏。耐久为5</t>
@@ -350,7 +353,10 @@
     <t>挖掘套件</t>
   </si>
   <si>
-    <t>【侦察】50%探索战利品+I</t>
+    <t>【侦察】50%探索战利品丰富+I</t>
+  </si>
+  <si>
+    <t>【手工】70%采集成果稀有+I</t>
   </si>
   <si>
     <t>采掘矿石，挖出宝箱的时候常用的道具组。沉重的作业负担容易让关键的道具损坏。耐久为5</t>
@@ -550,10 +556,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -561,51 +567,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -618,21 +579,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -647,31 +594,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -693,8 +630,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -707,6 +690,29 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -717,187 +723,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,6 +914,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -926,36 +947,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -967,8 +958,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -976,10 +969,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1008,39 +999,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1049,112 +1055,112 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1492,10 +1498,10 @@
   <sheetPr/>
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1566,7 +1572,6 @@
       <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
         <v>18</v>
       </c>
@@ -2159,7 +2164,7 @@
         <v>108</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>104</v>
@@ -2177,7 +2182,7 @@
         <v>1</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" ht="27" spans="1:13">
@@ -2185,7 +2190,7 @@
         <v>99</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>15</v>
@@ -2197,10 +2202,10 @@
         <v>101</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>104</v>
@@ -2218,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" ht="27" spans="1:13">
@@ -2226,7 +2231,7 @@
         <v>99</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>15</v>
@@ -2235,10 +2240,10 @@
         <v>16</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>104</v>
@@ -2259,7 +2264,7 @@
         <v>1</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" ht="27" spans="1:13">
@@ -2267,7 +2272,7 @@
         <v>99</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>15</v>
@@ -2276,13 +2281,13 @@
         <v>16</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>104</v>
@@ -2300,7 +2305,7 @@
         <v>1</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" ht="27" spans="1:13">
@@ -2308,7 +2313,7 @@
         <v>99</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>15</v>
@@ -2317,22 +2322,22 @@
         <v>16</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I21" s="1">
         <v>2500</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K21" s="1">
         <v>3</v>
@@ -2341,7 +2346,7 @@
         <v>1</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" ht="27" spans="1:13">
@@ -2349,7 +2354,7 @@
         <v>99</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>15</v>
@@ -2358,16 +2363,16 @@
         <v>16</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I22" s="1">
         <v>1000</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K22" s="1">
         <v>2</v>
@@ -2376,15 +2381,15 @@
         <v>2</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" ht="27" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>22</v>
@@ -2393,19 +2398,19 @@
         <v>23</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>57</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I23" s="1">
         <v>1001</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K23" s="1">
         <v>3</v>
@@ -2414,15 +2419,15 @@
         <v>3</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" ht="40.5" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>22</v>
@@ -2431,13 +2436,13 @@
         <v>39</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I24" s="1">
         <v>5000</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K24" s="1">
         <v>2</v>
@@ -2446,7 +2451,7 @@
         <v>1</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -2543,10 +2548,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2554,10 +2559,10 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D2" s="1">
         <v>3</v>
@@ -2568,10 +2573,10 @@
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D3" s="1">
         <v>3</v>
@@ -2582,10 +2587,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -2596,10 +2601,10 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -2610,10 +2615,10 @@
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
@@ -2624,10 +2629,10 @@
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>18</v>
@@ -2638,10 +2643,10 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>18</v>
@@ -2655,7 +2660,7 @@
         <v>91</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>18</v>
@@ -2666,10 +2671,10 @@
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D10" s="1">
         <v>3</v>
@@ -2680,10 +2685,10 @@
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>18</v>
@@ -2694,10 +2699,10 @@
         <v>99</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D12" s="1">
         <v>3</v>
@@ -2708,10 +2713,10 @@
         <v>99</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D13" s="1">
         <v>3</v>
@@ -2719,13 +2724,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>18</v>
@@ -2733,27 +2738,27 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>18</v>
